--- a/Data/recruiting_zeta-disease_prediction-data_take-home-challenge.xlsx
+++ b/Data/recruiting_zeta-disease_prediction-data_take-home-challenge.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sloan/Desktop/Code/Zeta_Disease/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869F1F37-B6BE-E044-9769-772351B76CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="2021-01-21_zeta-disease_predict" sheetId="1" r:id="rId3"/>
+    <sheet name="2021-01-21_zeta-disease_predict" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -43,59 +52,388 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -124,527 +462,587 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1">
         <v>39.5</v>
       </c>
       <c r="D2" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1">
         <v>1.3968</v>
       </c>
       <c r="G2" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="C3" s="1">
         <v>35.5</v>
       </c>
       <c r="D3" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="F3" s="1">
-        <v>1.6608</v>
+        <v>1.6608000000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1">
         <v>26.9</v>
       </c>
       <c r="D4" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1">
         <v>1.6958</v>
       </c>
       <c r="G4" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="C5" s="1">
         <v>32.4</v>
       </c>
       <c r="D5" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="F5" s="1">
-        <v>1.4608</v>
+        <v>1.4608000000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1">
         <v>29.8</v>
       </c>
       <c r="D6" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="F6" s="1">
         <v>1.7798</v>
       </c>
       <c r="G6" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1">
         <v>36.5</v>
       </c>
       <c r="D7" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
-        <v>1.2978</v>
+        <v>1.2978000000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1">
-        <v>1.5818</v>
+        <v>1.5818000000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="H8" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1">
         <v>31.2</v>
       </c>
       <c r="D9" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1">
-        <v>1.4168</v>
+        <v>1.4168000000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1">
         <v>30.5</v>
       </c>
       <c r="D10" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="F10" s="1">
         <v>1.4498</v>
       </c>
       <c r="G10" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="C11" s="1">
         <v>25.8</v>
       </c>
       <c r="D11" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1">
-        <v>1.7938</v>
+        <v>1.7938000000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="C12" s="1">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="F12" s="1">
         <v>1.7238</v>
       </c>
       <c r="G12" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C13" s="1">
         <v>30.4</v>
       </c>
       <c r="D13" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="F13" s="1">
-        <v>1.3118</v>
+        <v>1.3118000000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1">
         <v>46.5</v>
       </c>
       <c r="D14" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="F14" s="1">
         <v>1.2498</v>
       </c>
       <c r="G14" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="H14" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="C15" s="1">
         <v>31.3</v>
       </c>
       <c r="D15" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="F15" s="1">
         <v>1.9238</v>
       </c>
       <c r="G15" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="H15" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="C16" s="1">
         <v>37.4</v>
       </c>
       <c r="D16" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="F16" s="1">
-        <v>2.0508</v>
+        <v>2.0508000000000002</v>
       </c>
       <c r="G16" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="C17" s="1">
         <v>26.5</v>
       </c>
       <c r="D17" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="F17" s="1">
-        <v>1.4788</v>
+        <v>1.4787999999999999</v>
       </c>
       <c r="G17" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="H17" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="C18" s="1">
         <v>50.7</v>
       </c>
       <c r="D18" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="F18" s="1">
         <v>1.4878</v>
       </c>
       <c r="G18" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="H18" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="C19" s="1">
         <v>42.8</v>
       </c>
       <c r="D19" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="F19" s="1">
         <v>1.8748</v>
       </c>
       <c r="G19" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="H19" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="C20" s="1">
         <v>29.1</v>
       </c>
       <c r="D20" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="F20" s="1">
         <v>1.4298</v>
       </c>
       <c r="G20" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="C21" s="1">
         <v>33.9</v>
       </c>
       <c r="D21" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="E21" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="F21" s="1">
         <v>1.3268</v>
       </c>
       <c r="G21" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1">
-        <v>2.0</v>
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>